--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="project" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="project" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*(project!$E1&gt;0))*PeriodInPlan</definedName>
@@ -667,11 +668,801 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="316979120"/>
+        <c:axId val="316974856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="316979120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316974856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316974856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316979120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="16" fmlaLink="period_selected" max="60" min="1" page="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8662051" cy="6293013"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -683,8 +1474,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
@@ -726,7 +1517,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Violet II">
+    <a:clrScheme name="Aspect">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -734,34 +1525,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="632E62"/>
+        <a:srgbClr val="323232"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EAE5EB"/>
+        <a:srgbClr val="E3DED1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="92278F"/>
+        <a:srgbClr val="F07F09"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="9B57D3"/>
+        <a:srgbClr val="9F2936"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="755DD9"/>
+        <a:srgbClr val="1B587C"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="665EB8"/>
+        <a:srgbClr val="4E8542"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="45A5ED"/>
+        <a:srgbClr val="604878"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="5982DB"/>
+        <a:srgbClr val="C19859"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0066FF"/>
+        <a:srgbClr val="6B9F25"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="666699"/>
+        <a:srgbClr val="B26B02"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Project Planner Gantt">
@@ -955,8 +1746,8 @@
   </sheetPr>
   <dimension ref="B2:BQ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW13" sqref="BW13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BZ19" sqref="BZ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/Gantt Chart.xlsx
+++ b/Gantt Chart.xlsx
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
-  <si>
-    <t>Project Planner</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Plan</t>
   </si>
@@ -63,84 +60,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -225,6 +144,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Period Highlight:</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>Add Pathways</t>
+  </si>
+  <si>
+    <t>Implement PC Controls</t>
+  </si>
+  <si>
+    <t>Refine PC Controls</t>
+  </si>
+  <si>
+    <t>Add Menu Scene</t>
+  </si>
+  <si>
+    <t>Add About Scene</t>
+  </si>
+  <si>
+    <t>Add Showcase Scene</t>
+  </si>
+  <si>
+    <t>Final Polish</t>
+  </si>
+  <si>
+    <t>Acquire Models</t>
+  </si>
+  <si>
+    <t>Acquire Audio</t>
+  </si>
+  <si>
+    <t>Implement Spell Mechanics</t>
+  </si>
+  <si>
+    <t>Implement Clue Mechanics</t>
+  </si>
+  <si>
+    <t>Implement Openable Chests</t>
+  </si>
+  <si>
+    <t>Add Campsite</t>
+  </si>
+  <si>
+    <t>Add Enclave</t>
+  </si>
+  <si>
+    <t>Add Terrain</t>
+  </si>
+  <si>
+    <t>Add Menu UI</t>
+  </si>
+  <si>
+    <t>Add Dialogs UI</t>
+  </si>
+  <si>
+    <t>QA Testing &amp; Fixes</t>
   </si>
 </sst>
 </file>
@@ -270,12 +246,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
@@ -315,6 +285,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -408,14 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -424,7 +401,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -438,13 +415,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="3">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
@@ -453,7 +430,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="7">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="7" applyFont="1">
@@ -474,22 +451,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1744,42 +1721,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:BQ34"/>
+  <dimension ref="B2:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BZ19" sqref="BZ19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="2" customWidth="1"/>
     <col min="3" max="5" width="7.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="7" customWidth="1"/>
     <col min="8" max="8" width="4.25" style="1" customWidth="1"/>
     <col min="9" max="28" width="2.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:69" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="2:69" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+    <row r="2" spans="2:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:50" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="I3" s="8" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1790,20 +1767,20 @@
       </c>
       <c r="O3" s="8"/>
       <c r="Q3" s="10"/>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="11"/>
+      <c r="U3" s="18" t="s">
         <v>1</v>
-      </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="19" t="s">
-        <v>2</v>
       </c>
       <c r="X3" s="12"/>
       <c r="Y3" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AC3" s="13"/>
       <c r="AD3" s="6" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -1811,43 +1788,43 @@
       <c r="AJ3" s="1"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
       <c r="AX4" s="1"/>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:50" x14ac:dyDescent="0.3">
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
     </row>
-    <row r="6" spans="2:69" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:50" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1856,32 +1833,32 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
     </row>
-    <row r="7" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:50" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1934,668 +1911,728 @@
       <c r="W8" s="3">
         <v>15</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="2:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="15">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15">
+        <v>4</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="2:50" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="15">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="15">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>4</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="C19" s="17">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15">
+        <v>4</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="15">
+        <v>7</v>
+      </c>
+      <c r="D21" s="15">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="C22" s="15">
+        <v>3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>4</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="C23" s="15">
+        <v>10</v>
+      </c>
+      <c r="D23" s="15">
+        <v>4</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="C24" s="15">
+        <v>10</v>
+      </c>
+      <c r="D24" s="15">
+        <v>4</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="15">
+        <v>9</v>
+      </c>
+      <c r="D25" s="15">
+        <v>7</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="AD8" s="3">
-        <v>22</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>24</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>26</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>28</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>29</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>30</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>31</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>32</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>33</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>34</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>35</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>36</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>37</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>38</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>39</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>40</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>41</v>
-      </c>
-      <c r="AX8" s="3">
-        <v>42</v>
-      </c>
-      <c r="AY8" s="3">
-        <v>43</v>
-      </c>
-      <c r="AZ8" s="3">
-        <v>44</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>45</v>
-      </c>
-      <c r="BB8" s="3">
-        <v>46</v>
-      </c>
-      <c r="BC8" s="3">
-        <v>47</v>
-      </c>
-      <c r="BD8" s="3">
-        <v>48</v>
-      </c>
-      <c r="BE8" s="3">
-        <v>49</v>
-      </c>
-      <c r="BF8" s="3">
-        <v>50</v>
-      </c>
-      <c r="BG8" s="3">
-        <v>51</v>
-      </c>
-      <c r="BH8" s="3">
-        <v>52</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>53</v>
-      </c>
-      <c r="BJ8" s="3">
-        <v>54</v>
-      </c>
-      <c r="BK8" s="3">
-        <v>55</v>
-      </c>
-      <c r="BL8" s="3">
-        <v>56</v>
-      </c>
-      <c r="BM8" s="3">
-        <v>57</v>
-      </c>
-      <c r="BN8" s="3">
-        <v>58</v>
-      </c>
-      <c r="BO8" s="3">
-        <v>59</v>
-      </c>
-      <c r="BP8" s="3">
-        <v>60</v>
-      </c>
-      <c r="BQ8" s="1"/>
-    </row>
-    <row r="9" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>5</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:69" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="C26" s="15">
         <v>12</v>
       </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="16">
-        <v>6</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="16">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16">
-        <v>2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>5</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="16">
-        <v>4</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8</v>
-      </c>
-      <c r="E12" s="16">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16">
-        <v>6</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>4</v>
-      </c>
-      <c r="F13" s="16">
-        <v>8</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="16">
-        <v>4</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="D26" s="15">
         <v>3</v>
       </c>
-      <c r="E14" s="16">
-        <v>4</v>
-      </c>
-      <c r="F14" s="16">
-        <v>6</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="16">
-        <v>5</v>
-      </c>
-      <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="16">
-        <v>5</v>
-      </c>
-      <c r="F15" s="16">
-        <v>3</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="16">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>5</v>
-      </c>
-      <c r="F16" s="16">
-        <v>5</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="16">
-        <v>5</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16">
-        <v>5</v>
-      </c>
-      <c r="F17" s="16">
-        <v>6</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="16">
-        <v>6</v>
-      </c>
-      <c r="D18" s="16">
-        <v>5</v>
-      </c>
-      <c r="E18" s="16">
-        <v>6</v>
-      </c>
-      <c r="F18" s="16">
-        <v>7</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>5</v>
-      </c>
-      <c r="F19" s="16">
-        <v>8</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="16">
-        <v>9</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <v>9</v>
-      </c>
-      <c r="F20" s="16">
-        <v>3</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="16">
-        <v>9</v>
-      </c>
-      <c r="D21" s="16">
-        <v>6</v>
-      </c>
-      <c r="E21" s="16">
-        <v>9</v>
-      </c>
-      <c r="F21" s="16">
-        <v>7</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="16">
-        <v>9</v>
-      </c>
-      <c r="D22" s="16">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16">
-        <v>9</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="16">
-        <v>9</v>
-      </c>
-      <c r="D23" s="16">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16">
-        <v>8</v>
-      </c>
-      <c r="F23" s="16">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="16">
-        <v>10</v>
-      </c>
-      <c r="D24" s="16">
-        <v>5</v>
-      </c>
-      <c r="E24" s="16">
-        <v>10</v>
-      </c>
-      <c r="F24" s="16">
-        <v>3</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="16">
-        <v>11</v>
-      </c>
-      <c r="D25" s="16">
-        <v>2</v>
-      </c>
-      <c r="E25" s="16">
-        <v>11</v>
-      </c>
-      <c r="F25" s="16">
-        <v>5</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="16">
-        <v>12</v>
-      </c>
-      <c r="D26" s="16">
-        <v>6</v>
-      </c>
-      <c r="E26" s="16">
-        <v>12</v>
-      </c>
-      <c r="F26" s="16">
-        <v>7</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="16">
-        <v>12</v>
-      </c>
-      <c r="D27" s="16">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>12</v>
-      </c>
-      <c r="F27" s="16">
-        <v>5</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="16">
-        <v>14</v>
-      </c>
-      <c r="D28" s="16">
-        <v>5</v>
-      </c>
-      <c r="E28" s="16">
-        <v>14</v>
-      </c>
-      <c r="F28" s="16">
-        <v>6</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="16">
-        <v>14</v>
-      </c>
-      <c r="D29" s="16">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16">
-        <v>14</v>
-      </c>
-      <c r="F29" s="16">
-        <v>2</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="16">
-        <v>14</v>
-      </c>
-      <c r="D30" s="16">
-        <v>7</v>
-      </c>
-      <c r="E30" s="16">
-        <v>14</v>
-      </c>
-      <c r="F30" s="16">
-        <v>3</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="16">
-        <v>15</v>
-      </c>
-      <c r="D31" s="16">
-        <v>4</v>
-      </c>
-      <c r="E31" s="16">
-        <v>15</v>
-      </c>
-      <c r="F31" s="16">
-        <v>8</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="16">
-        <v>15</v>
-      </c>
-      <c r="D32" s="16">
-        <v>5</v>
-      </c>
-      <c r="E32" s="16">
-        <v>15</v>
-      </c>
-      <c r="F32" s="16">
-        <v>3</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="16">
-        <v>15</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16">
-        <v>15</v>
-      </c>
-      <c r="F33" s="16">
-        <v>5</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="16">
-        <v>16</v>
-      </c>
-      <c r="D34" s="16">
-        <v>28</v>
-      </c>
-      <c r="E34" s="16">
-        <v>16</v>
-      </c>
-      <c r="F34" s="16">
-        <v>30</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0.5</v>
-      </c>
+      <c r="E26" s="15">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+    </row>
+    <row r="28" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+    </row>
+    <row r="30" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+    </row>
+    <row r="32" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+    </row>
+    <row r="33" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+    </row>
+    <row r="34" spans="2:28" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+    </row>
+    <row r="35" spans="2:28" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="I9:BP34">
+  <conditionalFormatting sqref="I9:W26">
     <cfRule type="expression" dxfId="9" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -2621,12 +2658,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BP35">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BP8">
+  <conditionalFormatting sqref="I8:W8">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>I$8=period_selected</formula>
     </cfRule>
